--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Desktop\Master Business Analytics and Econometrics\Semester 3\Bayesian Analytics\Replication challenge\Replication-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2271DDBA-A5AD-488E-B156-28ABD511FD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FED0B90-E89D-498D-8CD4-30B98761436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>20.11.2025 - 27.11.2025</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Paper lesen</t>
   </si>
   <si>
-    <t>EDA</t>
-  </si>
-  <si>
-    <t>Summary statistics</t>
-  </si>
-  <si>
     <t>Variablen Aufteilen</t>
   </si>
   <si>
@@ -106,6 +100,15 @@
   </si>
   <si>
     <t>model evaluation WAIC etc.</t>
+  </si>
+  <si>
+    <t>EDA(DAGs)</t>
+  </si>
+  <si>
+    <t>Summary statistics(Latex style) Nico</t>
+  </si>
+  <si>
+    <t>EDA(correlation heatmap) Lourenco</t>
   </si>
 </sst>
 </file>
@@ -160,15 +163,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -458,7 +460,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.19921875" bestFit="1" customWidth="1"/>
@@ -502,44 +504,39 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Desktop\Master Business Analytics and Econometrics\Semester 3\Bayesian Analytics\Replication challenge\Replication-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FED0B90-E89D-498D-8CD4-30B98761436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9B8F63-0EC6-41A1-9C2F-F621480BF293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>20.11.2025 - 27.11.2025</t>
   </si>
@@ -66,9 +66,6 @@
     <t>04.12 Advanced Analytics HW 2</t>
   </si>
   <si>
-    <t>2 xBayesian HW 25.11</t>
-  </si>
-  <si>
     <t>Coding task 23.11</t>
   </si>
   <si>
@@ -109,6 +106,15 @@
   </si>
   <si>
     <t>EDA(correlation heatmap) Lourenco</t>
+  </si>
+  <si>
+    <t>Bayesian HW 5, 25.11</t>
+  </si>
+  <si>
+    <t>Bayesian HW 6, 02.12</t>
+  </si>
+  <si>
+    <t>Bayesian HW 7 ?, 09.12</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -502,40 +508,40 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -543,30 +549,38 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Desktop\Master Business Analytics and Econometrics\Semester 3\Bayesian Analytics\Replication challenge\Replication-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9B8F63-0EC6-41A1-9C2F-F621480BF293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5650465E-BDE2-4A6D-B5A8-C3EC85B08549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Variablen Aufteilen</t>
   </si>
   <si>
-    <t>Replication 2 (tabel 2 &amp;3)</t>
-  </si>
-  <si>
     <t>Funktionen aufteilen</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Bayesian HW 7 ?, 09.12</t>
+  </si>
+  <si>
+    <t>Replication 2 (table 2 &amp;3)</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -514,10 +514,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -525,18 +525,18 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -564,13 +564,13 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="2"/>
     </row>
